--- a/published-data/fonds-solidarite/fds-2021-04-19/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-04-19/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -2898,13 +2898,13 @@
         <v>12</v>
       </c>
       <c r="C50">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="D50">
         <v>555</v>
       </c>
       <c r="E50">
-        <v>7346716</v>
+        <v>7344916</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
@@ -5838,13 +5838,13 @@
         <v>12</v>
       </c>
       <c r="C134">
-        <v>11284</v>
+        <v>11285</v>
       </c>
       <c r="D134">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="E134">
-        <v>30873849</v>
+        <v>30875649</v>
       </c>
       <c r="F134" t="s">
         <v>13</v>
@@ -30408,13 +30408,13 @@
         <v>12</v>
       </c>
       <c r="C836">
-        <v>26559</v>
+        <v>26560</v>
       </c>
       <c r="D836">
         <v>4092</v>
       </c>
       <c r="E836">
-        <v>154353794</v>
+        <v>154355969</v>
       </c>
       <c r="F836" t="s">
         <v>22</v>
@@ -50463,13 +50463,13 @@
         <v>12</v>
       </c>
       <c r="C1409">
-        <v>19891</v>
+        <v>19892</v>
       </c>
       <c r="D1409">
         <v>5204</v>
       </c>
       <c r="E1409">
-        <v>49888384</v>
+        <v>49890552</v>
       </c>
       <c r="F1409" t="s">
         <v>28</v>
